--- a/projects/retail_optim2.xlsx
+++ b/projects/retail_optim2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6373,8 +6373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6654,7 +6654,7 @@
         <v>559</v>
       </c>
       <c r="B26" s="29">
-        <v>45036000000000</v>
+        <v>450360000000000</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>577</v>
@@ -8996,9 +8996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/retail_optim2.xlsx
+++ b/projects/retail_optim2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="763">
   <si>
     <t>type</t>
   </si>
@@ -1903,9 +1903,6 @@
     <t>1.6.1</t>
   </si>
   <si>
-    <t>AssetScore Cluster</t>
-  </si>
-  <si>
     <t>Delta X</t>
   </si>
   <si>
@@ -2329,7 +2326,10 @@
     <t>../seeds/EmptySeedModel.osm</t>
   </si>
   <si>
-    <t>Ngrid Retail optim 2</t>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>NationalGrid Retail Calibration</t>
   </si>
 </sst>
 </file>
@@ -2467,8 +2467,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1733">
+  <cellStyleXfs count="1741">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4305,7 +4313,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1733">
+  <cellStyles count="1741">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5172,6 +5180,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6038,6 +6050,10 @@
     <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6343,17 +6359,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.85546875" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>42</v>
       </c>
@@ -6373,21 +6389,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6396,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>436</v>
       </c>
@@ -6405,29 +6421,29 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>470</v>
       </c>
@@ -6438,18 +6454,18 @@
         <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>620</v>
+        <v>761</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>443</v>
       </c>
@@ -6468,7 +6484,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>444</v>
       </c>
@@ -6487,7 +6503,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
@@ -6500,7 +6516,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6509,7 +6525,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -6520,26 +6536,26 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>463</v>
       </c>
@@ -6550,7 +6566,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6561,7 +6577,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6572,7 +6588,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>467</v>
       </c>
@@ -6583,7 +6599,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6596,7 +6612,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>452</v>
       </c>
@@ -6604,11 +6620,11 @@
         <v>544</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>451</v>
       </c>
@@ -6625,7 +6641,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="31" t="s">
         <v>540</v>
       </c>
@@ -6637,7 +6653,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>545</v>
       </c>
@@ -6649,7 +6665,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>559</v>
       </c>
@@ -6661,7 +6677,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>560</v>
       </c>
@@ -6673,7 +6689,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>541</v>
       </c>
@@ -6683,7 +6699,7 @@
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>543</v>
       </c>
@@ -6695,38 +6711,38 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -6739,15 +6755,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -6764,24 +6780,19 @@
         <v>450</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>625</v>
-      </c>
       <c r="C40" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>761</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -6822,37 +6833,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y206"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N49" sqref="N49"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6887,7 +6898,7 @@
       <c r="X1" s="48"/>
       <c r="Y1" s="48"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -6903,7 +6914,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6944,7 +6955,7 @@
         <v>9</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>477</v>
@@ -6977,18 +6988,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>69</v>
@@ -6996,21 +7007,21 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -7021,21 +7032,21 @@
       <c r="P5" s="40"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>699</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>700</v>
-      </c>
       <c r="F6" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -7044,72 +7055,72 @@
       <c r="O6" s="4"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>701</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="F7" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>702</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>707</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>703</v>
-      </c>
       <c r="F8" s="31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H8" s="31" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H9" s="31" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="38" customFormat="1">
       <c r="A10" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>69</v>
@@ -7117,21 +7128,21 @@
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>199</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H11" s="31">
         <v>50000</v>
@@ -7142,147 +7153,147 @@
       <c r="P11" s="40"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>201</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H12" s="31">
         <v>2</v>
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="B13" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>203</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H13" s="31">
         <v>2</v>
       </c>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>205</v>
       </c>
       <c r="F14" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>623</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>624</v>
       </c>
       <c r="H14" s="31">
         <v>10</v>
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H15" s="31">
         <v>0.7</v>
       </c>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="B16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H16" s="31">
         <v>0.2</v>
       </c>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="B17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H17" s="31">
         <v>0.05</v>
       </c>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="B18" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H18" s="31">
         <v>0.05</v>
       </c>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="38" customFormat="1">
       <c r="A19" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>721</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>722</v>
-      </c>
       <c r="D19" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>69</v>
@@ -7290,34 +7301,34 @@
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="B20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>736</v>
-      </c>
       <c r="F20" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="38" customFormat="1">
       <c r="A21" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>723</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>724</v>
-      </c>
       <c r="D21" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>69</v>
@@ -7325,28 +7336,28 @@
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>736</v>
-      </c>
       <c r="F22" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="38" customFormat="1">
       <c r="A23" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>77</v>
@@ -7360,18 +7371,18 @@
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="B24" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H24" s="31">
         <v>0.4</v>
@@ -7385,21 +7396,21 @@
       <c r="P24" s="40"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="B25" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H25" s="31">
         <v>30</v>
@@ -7413,24 +7424,24 @@
       <c r="P25" s="40"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="B26" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G26" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>726</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>727</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -7441,12 +7452,12 @@
       <c r="P26" s="40"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="38" customFormat="1">
       <c r="A27" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>77</v>
@@ -7460,18 +7471,18 @@
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="B28" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>78</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H28" s="31">
         <v>0.4</v>
@@ -7485,21 +7496,21 @@
       <c r="P28" s="40"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="B29" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H29" s="31">
         <v>30</v>
@@ -7513,21 +7524,21 @@
       <c r="P29" s="40"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="B30" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>83</v>
@@ -7541,12 +7552,12 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>77</v>
@@ -7560,18 +7571,18 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>78</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H32" s="31">
         <v>0.4</v>
@@ -7585,21 +7596,21 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="B33" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H33" s="31">
         <v>30</v>
@@ -7613,24 +7624,24 @@
       <c r="P33" s="40"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="B34" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -7641,12 +7652,12 @@
       <c r="P34" s="40"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="38" customFormat="1">
       <c r="A35" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>77</v>
@@ -7660,18 +7671,18 @@
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="B36" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>78</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H36" s="31">
         <v>0.4</v>
@@ -7685,21 +7696,21 @@
       <c r="P36" s="40"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="B37" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H37" s="31">
         <v>30</v>
@@ -7713,24 +7724,24 @@
       <c r="P37" s="40"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -7741,12 +7752,12 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="30" customFormat="1">
       <c r="A39" s="30" t="b">
         <v>1</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>77</v>
@@ -7758,12 +7769,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="42" customFormat="1">
       <c r="B40" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>78</v>
@@ -7791,10 +7802,10 @@
         <v>0.01</v>
       </c>
       <c r="Q40" s="42" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="30" customFormat="1">
       <c r="B41" s="30" t="s">
         <v>21</v>
       </c>
@@ -7811,7 +7822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="30" customFormat="1">
       <c r="B42" s="30" t="s">
         <v>21</v>
       </c>
@@ -7831,12 +7842,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="30" customFormat="1">
       <c r="A43" s="30" t="b">
         <v>1</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>77</v>
@@ -7848,12 +7859,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="42" customFormat="1">
       <c r="B44" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>78</v>
@@ -7881,10 +7892,10 @@
         <v>0.01</v>
       </c>
       <c r="Q44" s="42" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="30" customFormat="1">
       <c r="B45" s="30" t="s">
         <v>21</v>
       </c>
@@ -7901,7 +7912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="30" customFormat="1">
       <c r="B46" s="30" t="s">
         <v>21</v>
       </c>
@@ -7915,18 +7926,18 @@
         <v>63</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I46" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="30" customFormat="1">
       <c r="A47" s="30" t="b">
         <v>1</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>77</v>
@@ -7938,12 +7949,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="42" customFormat="1">
       <c r="B48" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E48" s="42" t="s">
         <v>78</v>
@@ -7971,10 +7982,10 @@
         <v>0.01</v>
       </c>
       <c r="Q48" s="42" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="30" customFormat="1">
       <c r="B49" s="30" t="s">
         <v>21</v>
       </c>
@@ -7991,7 +8002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="30" customFormat="1">
       <c r="B50" s="30" t="s">
         <v>21</v>
       </c>
@@ -8005,13 +8016,13 @@
         <v>63</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I50" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="30" customFormat="1">
       <c r="A51" s="30" t="b">
         <v>1</v>
       </c>
@@ -8029,7 +8040,7 @@
       </c>
       <c r="P51" s="31"/>
     </row>
-    <row r="52" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="30" customFormat="1">
       <c r="B52" s="30" t="s">
         <v>21</v>
       </c>
@@ -8050,12 +8061,12 @@
       </c>
       <c r="O52" s="31"/>
     </row>
-    <row r="53" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="42" customFormat="1">
       <c r="B53" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E53" s="42" t="s">
         <v>71</v>
@@ -8083,10 +8094,10 @@
         <v>2.5</v>
       </c>
       <c r="Q53" s="42" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="30" customFormat="1">
       <c r="B54" s="30" t="s">
         <v>21</v>
       </c>
@@ -8104,7 +8115,7 @@
       </c>
       <c r="O54" s="31"/>
     </row>
-    <row r="55" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="30" customFormat="1">
       <c r="B55" s="30" t="s">
         <v>21</v>
       </c>
@@ -8122,7 +8133,7 @@
       </c>
       <c r="O55" s="31"/>
     </row>
-    <row r="56" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="30" customFormat="1">
       <c r="B56" s="30" t="s">
         <v>21</v>
       </c>
@@ -8140,7 +8151,7 @@
       </c>
       <c r="O56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="30" t="b">
         <v>1</v>
       </c>
@@ -8168,7 +8179,7 @@
       <c r="O57" s="3"/>
       <c r="Q57" s="40"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="30"/>
       <c r="B58" s="30" t="s">
         <v>21</v>
@@ -8197,12 +8208,12 @@
       <c r="N58" s="3"/>
       <c r="P58" s="40"/>
     </row>
-    <row r="59" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="42" customFormat="1">
       <c r="B59" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E59" s="42" t="s">
         <v>47</v>
@@ -8235,7 +8246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="30"/>
       <c r="B60" s="30" t="s">
         <v>21</v>
@@ -8261,7 +8272,7 @@
       <c r="N60" s="3"/>
       <c r="P60" s="40"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="30"/>
       <c r="B61" s="30" t="s">
         <v>21</v>
@@ -8287,7 +8298,7 @@
       <c r="N61" s="3"/>
       <c r="P61" s="40"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="30"/>
       <c r="B62" s="30" t="s">
         <v>21</v>
@@ -8313,7 +8324,7 @@
       <c r="N62" s="3"/>
       <c r="P62" s="40"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="30"/>
       <c r="B63" s="30" t="s">
         <v>21</v>
@@ -8339,7 +8350,7 @@
       <c r="N63" s="3"/>
       <c r="P63" s="40"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="30"/>
       <c r="B64" s="30" t="s">
         <v>21</v>
@@ -8365,7 +8376,7 @@
       <c r="N64" s="3"/>
       <c r="P64" s="40"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="30"/>
       <c r="B65" s="30" t="s">
         <v>21</v>
@@ -8391,7 +8402,7 @@
       <c r="N65" s="3"/>
       <c r="P65" s="40"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="30"/>
       <c r="B66" s="30" t="s">
         <v>21</v>
@@ -8417,563 +8428,563 @@
       <c r="N66" s="3"/>
       <c r="P66" s="40"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="H67" s="31"/>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="H69" s="31"/>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="H76" s="31"/>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="H77" s="31"/>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="H78" s="31"/>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="H79" s="31"/>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="H80" s="31"/>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81" s="31"/>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83" s="31"/>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84" s="31"/>
       <c r="I84" s="31"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86" s="31"/>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:9">
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:9">
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:9">
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:9">
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:9">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:9">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:9">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:9">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:9">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:9">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:9">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:9">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="8:9">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="8:9">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="8:9">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:9">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:9">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
@@ -8996,25 +9007,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9029,12 +9040,12 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>460</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>461</v>
@@ -9046,37 +9057,37 @@
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="K2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+      <c r="A3" s="14" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>635</v>
-      </c>
       <c r="B3" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>462</v>
@@ -9088,27 +9099,27 @@
         <v>462</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>469</v>
@@ -9131,15 +9142,15 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>469</v>
@@ -9161,15 +9172,15 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>469</v>
@@ -9190,15 +9201,15 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>469</v>
@@ -9219,16 +9230,16 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>65</v>
@@ -9247,16 +9258,16 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>65</v>
@@ -9275,16 +9286,16 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>65</v>
@@ -9303,16 +9314,16 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>65</v>
@@ -9331,13 +9342,13 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>469</v>
@@ -9359,13 +9370,13 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>469</v>
@@ -9387,13 +9398,13 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>469</v>
@@ -9415,13 +9426,13 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>469</v>
@@ -9443,13 +9454,13 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>469</v>
@@ -9471,13 +9482,13 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>469</v>
@@ -9499,13 +9510,13 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>469</v>
@@ -9527,13 +9538,13 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>469</v>
@@ -9555,13 +9566,13 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>469</v>
@@ -9583,13 +9594,13 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>469</v>
@@ -9611,13 +9622,13 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>469</v>
@@ -9639,13 +9650,13 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>469</v>
@@ -9667,13 +9678,13 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>469</v>
@@ -9695,13 +9706,13 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>469</v>
@@ -9723,16 +9734,16 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>65</v>
@@ -9751,73 +9762,73 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9842,19 +9853,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -9873,7 +9884,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -9894,7 +9905,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -9917,7 +9928,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -9940,7 +9951,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -9963,7 +9974,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -9986,7 +9997,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10009,7 +10020,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10032,7 +10043,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10055,7 +10066,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10078,7 +10089,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10097,7 +10108,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10118,7 +10129,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10141,7 +10152,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10164,7 +10175,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10187,7 +10198,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10210,7 +10221,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10233,7 +10244,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10256,7 +10267,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -10279,7 +10290,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -10302,7 +10313,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -10321,7 +10332,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -10344,7 +10355,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -10367,7 +10378,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -10390,7 +10401,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -10413,7 +10424,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -10436,7 +10447,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -10459,7 +10470,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -10482,7 +10493,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -10505,7 +10516,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -10528,7 +10539,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -10547,7 +10558,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -10568,7 +10579,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -10591,7 +10602,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -10614,7 +10625,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -10637,7 +10648,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -10660,7 +10671,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -10683,7 +10694,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -10706,7 +10717,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -10729,7 +10740,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -10752,7 +10763,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -10771,7 +10782,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -10792,7 +10803,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -10815,7 +10826,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -10838,7 +10849,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -10861,7 +10872,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -10884,7 +10895,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -10907,7 +10918,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -10930,7 +10941,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -10953,7 +10964,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -10976,7 +10987,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -10995,7 +11006,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11016,7 +11027,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11039,7 +11050,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11062,7 +11073,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11085,7 +11096,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11108,7 +11119,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11131,7 +11142,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11154,7 +11165,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11177,7 +11188,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11200,7 +11211,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11219,7 +11230,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11240,7 +11251,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -11265,7 +11276,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -11288,7 +11299,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -11311,7 +11322,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -11334,7 +11345,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -11357,7 +11368,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -11380,7 +11391,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -11403,7 +11414,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -11426,7 +11437,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -11449,7 +11460,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -11468,7 +11479,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -11489,7 +11500,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -11512,7 +11523,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -11537,7 +11548,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -11560,7 +11571,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -11583,7 +11594,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -11606,7 +11617,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -11629,7 +11640,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -11652,7 +11663,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -11675,7 +11686,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -11698,7 +11709,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -11721,7 +11732,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -11744,7 +11755,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -11767,7 +11778,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -11786,7 +11797,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -11809,7 +11820,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -11832,7 +11843,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -11855,7 +11866,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -11878,7 +11889,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -11901,7 +11912,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -11924,7 +11935,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -11947,7 +11958,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -11970,7 +11981,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -11993,7 +12004,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12016,7 +12027,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12035,7 +12046,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12060,7 +12071,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12079,7 +12090,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12100,7 +12111,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12125,7 +12136,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12144,7 +12155,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12167,7 +12178,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12192,7 +12203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12215,7 +12226,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12236,7 +12247,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12255,7 +12266,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -12280,7 +12291,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -12303,7 +12314,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -12326,7 +12337,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -12349,7 +12360,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -12372,7 +12383,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -12395,7 +12406,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -12418,7 +12429,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -12437,7 +12448,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -12460,7 +12471,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -12483,7 +12494,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -12506,7 +12517,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -12525,7 +12536,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -12548,7 +12559,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -12571,7 +12582,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -12594,7 +12605,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -12617,7 +12628,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -12640,7 +12651,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -12663,7 +12674,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -12682,7 +12693,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -12707,7 +12718,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -12730,7 +12741,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -12753,7 +12764,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -12776,7 +12787,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -12799,7 +12810,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -12822,7 +12833,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -12845,7 +12856,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -12868,7 +12879,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -12891,7 +12902,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -12910,7 +12921,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -12935,7 +12946,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -12956,7 +12967,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -12979,7 +12990,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13002,7 +13013,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13025,7 +13036,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13048,7 +13059,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13071,7 +13082,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13094,7 +13105,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13117,7 +13128,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13140,7 +13151,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13163,7 +13174,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13186,7 +13197,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13209,7 +13220,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13232,7 +13243,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13251,7 +13262,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -13274,7 +13285,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -13293,7 +13304,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -13316,7 +13327,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -13339,7 +13350,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -13358,7 +13369,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -13383,7 +13394,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -13406,7 +13417,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -13429,7 +13440,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -13452,7 +13463,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -13475,7 +13486,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -13498,7 +13509,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -13521,7 +13532,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -13544,7 +13555,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -13567,7 +13578,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -13590,7 +13601,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -13609,7 +13620,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -13634,7 +13645,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -13657,7 +13668,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -13680,7 +13691,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -13703,7 +13714,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -13726,7 +13737,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -13749,7 +13760,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -13772,7 +13783,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -13795,7 +13806,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -13818,7 +13829,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -13841,7 +13852,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -13860,7 +13871,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -13883,7 +13894,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -13906,7 +13917,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -13929,7 +13940,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -13952,7 +13963,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -13971,7 +13982,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -13994,7 +14005,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14017,7 +14028,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14040,7 +14051,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14063,7 +14074,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14082,7 +14093,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14103,7 +14114,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14126,7 +14137,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14145,7 +14156,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14168,7 +14179,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14193,7 +14204,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14214,7 +14225,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14239,7 +14250,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -14264,7 +14275,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -14283,7 +14294,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14319,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14342,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -14354,7 +14365,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -14377,7 +14388,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -14400,7 +14411,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -14423,7 +14434,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -14446,7 +14457,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -14469,7 +14480,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -14492,7 +14503,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -14511,7 +14522,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -14536,7 +14547,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -14559,7 +14570,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14593,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -14605,7 +14616,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -14628,7 +14639,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -14651,7 +14662,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -14674,7 +14685,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -14697,7 +14708,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -14720,7 +14731,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -14739,7 +14750,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -14760,7 +14771,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -14783,7 +14794,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -14806,7 +14817,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -14829,7 +14840,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -14852,7 +14863,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -14875,7 +14886,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -14898,7 +14909,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -14921,7 +14932,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -14944,7 +14955,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -14967,7 +14978,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -14990,7 +15001,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15013,7 +15024,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15036,7 +15047,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15059,7 +15070,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15082,7 +15093,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15105,7 +15116,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15124,7 +15135,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15145,7 +15156,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15168,7 +15179,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15191,7 +15202,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15214,7 +15225,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15237,7 +15248,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -15260,7 +15271,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -15283,7 +15294,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -15306,7 +15317,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -15329,7 +15340,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -15352,7 +15363,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -15375,7 +15386,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -15398,7 +15409,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -15421,7 +15432,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -15444,7 +15455,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -15467,7 +15478,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -15490,7 +15501,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -15509,7 +15520,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -15534,7 +15545,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -15557,7 +15568,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -15580,7 +15591,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -15603,7 +15614,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -15626,7 +15637,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -15645,7 +15656,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -15670,7 +15681,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -15693,7 +15704,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -15712,7 +15723,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -15731,7 +15742,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -15750,7 +15761,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -15771,7 +15782,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -15794,7 +15805,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -15817,7 +15828,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -15840,7 +15851,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -15863,7 +15874,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -15886,7 +15897,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -15909,7 +15920,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -15932,7 +15943,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -15955,7 +15966,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -15978,7 +15989,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16001,7 +16012,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16020,7 +16031,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16043,7 +16054,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16062,7 +16073,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16087,7 +16098,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16110,7 +16121,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16133,7 +16144,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16156,7 +16167,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16179,7 +16190,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16202,7 +16213,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16225,7 +16236,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16248,7 +16259,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -16271,7 +16282,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -16294,7 +16305,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -16317,7 +16328,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -16336,7 +16347,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -16359,7 +16370,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -16378,7 +16389,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -16399,7 +16410,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -16418,7 +16429,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -16439,7 +16450,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -16458,7 +16469,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -16479,7 +16490,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -16498,7 +16509,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -16521,7 +16532,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -16540,7 +16551,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -16565,7 +16576,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -16588,7 +16599,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -16611,7 +16622,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -16634,7 +16645,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -16657,7 +16668,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -16680,7 +16691,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -16703,7 +16714,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -16726,7 +16737,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -16749,7 +16760,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -16768,7 +16779,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -16791,7 +16802,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -16814,7 +16825,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -16837,7 +16848,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -16860,7 +16871,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -16879,7 +16890,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -16902,7 +16913,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -16925,7 +16936,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -16950,7 +16961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -16969,7 +16980,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -16994,7 +17005,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17017,7 +17028,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17036,7 +17047,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17057,7 +17068,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17078,7 +17089,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17101,7 +17112,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17120,7 +17131,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17139,7 +17150,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17164,7 +17175,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17189,7 +17200,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17203,7 +17214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17226,7 +17237,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -17246,7 +17257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -17266,7 +17277,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -17286,7 +17297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -17303,7 +17314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -17326,7 +17337,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -17349,7 +17360,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -17363,7 +17374,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -17386,7 +17397,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -17409,7 +17420,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -17429,7 +17440,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -17449,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -17466,7 +17477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -17492,7 +17503,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -17521,7 +17532,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -17560,7 +17571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -17574,7 +17585,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -17594,7 +17605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -17608,7 +17619,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -17628,7 +17639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -17648,7 +17659,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -17668,7 +17679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -17688,7 +17699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -17708,7 +17719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -17728,7 +17739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -17748,7 +17759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -17768,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -17788,7 +17799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -17802,7 +17813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -17822,7 +17833,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -17842,7 +17853,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -17858,7 +17869,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -17884,7 +17895,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -17925,7 +17936,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -17939,7 +17950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -17959,7 +17970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -17973,7 +17984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18012,17 +18023,17 @@
       <selection activeCell="I17" sqref="I17:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>442</v>
       </c>
@@ -18033,7 +18044,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>591</v>
       </c>
@@ -18047,7 +18058,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>594</v>
       </c>
@@ -18061,7 +18072,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>596</v>
       </c>
@@ -18075,7 +18086,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>598</v>
       </c>
@@ -18089,7 +18100,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>600</v>
       </c>
@@ -18103,7 +18114,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>441</v>
       </c>
@@ -18117,7 +18128,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>603</v>
       </c>
@@ -18131,7 +18142,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>605</v>
       </c>
@@ -18145,7 +18156,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>571</v>
       </c>
@@ -18159,7 +18170,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>455</v>
       </c>
@@ -18173,7 +18184,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>453</v>
       </c>
@@ -18184,8 +18195,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>549</v>
       </c>
@@ -18211,7 +18222,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>550</v>
       </c>
@@ -18252,7 +18263,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -18293,7 +18304,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>544</v>
       </c>
@@ -18325,7 +18336,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>552</v>
       </c>
@@ -18357,7 +18368,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>551</v>
       </c>
@@ -18386,7 +18397,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>553</v>
       </c>
@@ -18418,7 +18429,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>554</v>
       </c>
@@ -18438,9 +18449,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>559</v>
@@ -18461,7 +18472,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>560</v>
       </c>
@@ -18472,7 +18483,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>541</v>
       </c>
@@ -18480,7 +18491,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>543</v>
       </c>
